--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ihh-Ptch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ihh-Ptch2.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.293676666666666</v>
+        <v>3.832616</v>
       </c>
       <c r="N2">
-        <v>12.88103</v>
+        <v>11.497848</v>
       </c>
       <c r="O2">
-        <v>0.2876481693908581</v>
+        <v>0.264217765931355</v>
       </c>
       <c r="P2">
-        <v>0.2876481693908581</v>
+        <v>0.264217765931355</v>
       </c>
       <c r="Q2">
-        <v>0.2920415746111111</v>
+        <v>0.2606817649333333</v>
       </c>
       <c r="R2">
-        <v>2.6283741715</v>
+        <v>2.3461358844</v>
       </c>
       <c r="S2">
-        <v>0.2876481693908581</v>
+        <v>0.264217765931355</v>
       </c>
       <c r="T2">
-        <v>0.2876481693908581</v>
+        <v>0.264217765931355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>26.248317</v>
       </c>
       <c r="O3">
-        <v>0.5861550151378376</v>
+        <v>0.6031799756961482</v>
       </c>
       <c r="P3">
-        <v>0.5861550151378376</v>
+        <v>0.6031799756961482</v>
       </c>
       <c r="Q3">
         <v>0.5951076759833334</v>
@@ -635,10 +635,10 @@
         <v>5.355969083850001</v>
       </c>
       <c r="S3">
-        <v>0.5861550151378376</v>
+        <v>0.6031799756961482</v>
       </c>
       <c r="T3">
-        <v>0.5861550151378376</v>
+        <v>0.6031799756961482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.208355333333333</v>
+        <v>1.255882</v>
       </c>
       <c r="N4">
-        <v>3.625066</v>
+        <v>3.767646</v>
       </c>
       <c r="O4">
-        <v>0.08095188030934176</v>
+        <v>0.08657959375878042</v>
       </c>
       <c r="P4">
-        <v>0.08095188030934176</v>
+        <v>0.08657959375878042</v>
       </c>
       <c r="Q4">
-        <v>0.08218830192222223</v>
+        <v>0.08542090736666667</v>
       </c>
       <c r="R4">
-        <v>0.7396947173000001</v>
+        <v>0.7687881663</v>
       </c>
       <c r="S4">
-        <v>0.08095188030934176</v>
+        <v>0.08657959375878042</v>
       </c>
       <c r="T4">
-        <v>0.08095188030934176</v>
+        <v>0.08657959375878042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6753636666666667</v>
+        <v>0.6675826666666667</v>
       </c>
       <c r="N5">
-        <v>2.026091</v>
+        <v>2.002748</v>
       </c>
       <c r="O5">
-        <v>0.04524493516196244</v>
+        <v>0.04602266461371635</v>
       </c>
       <c r="P5">
-        <v>0.04524493516196245</v>
+        <v>0.04602266461371635</v>
       </c>
       <c r="Q5">
-        <v>0.04593598539444445</v>
+        <v>0.04540674771111111</v>
       </c>
       <c r="R5">
-        <v>0.41342386855</v>
+        <v>0.4086607294</v>
       </c>
       <c r="S5">
-        <v>0.04524493516196244</v>
+        <v>0.04602266461371635</v>
       </c>
       <c r="T5">
-        <v>0.04524493516196245</v>
+        <v>0.04602266461371635</v>
       </c>
     </row>
   </sheetData>
